--- a/Planilha de Tempos.xlsx
+++ b/Planilha de Tempos.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Junior/git/TrabalhoSO/Dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Junior/git/TrabalhoSO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246070DA-642A-2F4D-8C76-1230715C4913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26120D9A-19E8-CB4C-8CB8-6383A7F5EA28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16540" xr2:uid="{2A853BE5-3C7C-F54D-A2AC-24AF6C2F3E86}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,6 +78,3485 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Entrada igual a 100000 por arquivo</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1847</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-831A-A94E-89B9-7C1837825DA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1687726879"/>
+        <c:axId val="1687904879"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1687726879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687904879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1687904879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687726879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Entrada igual a 10000 por arquivo</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E8D-1A48-8AEF-81CCBB8C2C37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1687726879"/>
+        <c:axId val="1687904879"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1687726879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687904879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1687904879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687726879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Entrada igual a 100000 por arquivo</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8146-074A-864D-0A93D0E2450E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1669</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1847</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8146-074A-864D-0A93D0E2450E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1687726879"/>
+        <c:axId val="1687904879"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1687726879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687904879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1687904879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687726879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Entrada igual a 1000 por arquivo</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-050C-B54E-88B9-A3FEB157B18D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1687726879"/>
+        <c:axId val="1687904879"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1687726879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687904879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1687904879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1687726879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E371635-AE87-6446-B8D1-7119C12BAACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B223D0F-08B8-CD4A-B673-498CCABC16CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ED6BC6D-56BA-304B-83B3-1561F4F28062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C91D3CB-6AE9-0646-BB5D-20032217E659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,10 +3856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60799E16-FB4B-C84F-856C-71BE3829FC47}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -404,16 +3883,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>314</v>
       </c>
       <c r="E2">
-        <v>241</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -421,16 +3900,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="E3">
-        <v>152</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -439,16 +3918,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -457,16 +3936,16 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="E5">
-        <v>185</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -475,16 +3954,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="E6">
-        <v>54</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -493,16 +3972,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="E7">
-        <v>58</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -511,16 +3990,16 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="E8">
-        <v>131</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -529,16 +4008,16 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="E9">
-        <v>62</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -547,16 +4026,16 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -565,16 +4044,16 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="E11">
-        <v>60</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -583,87 +4062,20 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="E12">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>40</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>80</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>17</v>
-      </c>
-      <c r="D14">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>160</v>
-      </c>
-      <c r="B15">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <v>37</v>
-      </c>
-      <c r="E15">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>320</v>
-      </c>
-      <c r="B16">
-        <v>33</v>
-      </c>
-      <c r="C16">
-        <v>47</v>
-      </c>
-      <c r="D16">
-        <v>86</v>
-      </c>
-      <c r="E16">
-        <v>493</v>
+        <v>1969</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>